--- a/API-documentation-usedbikes.xlsx
+++ b/API-documentation-usedbikes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajayb\OneDrive\Desktop\Luminar Projects\olx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E569488-9D2E-4B55-8C81-132F94D03A0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA9424C-A6E5-43FC-8979-56EA5F6CBE31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="52">
   <si>
     <t>Url</t>
   </si>
@@ -126,9 +126,6 @@
     <t>offer_price</t>
   </si>
   <si>
-    <t>ON PROGRESS</t>
-  </si>
-  <si>
     <t>localhost:8000/usedbikes/bikes/{id}/offer_requests/</t>
   </si>
   <si>
@@ -150,7 +147,40 @@
     <t>UPDATE</t>
   </si>
   <si>
-    <t xml:space="preserve"> ON PROGRESS</t>
+    <t>For update an offer price</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For delete an offer make by the logined user</t>
+  </si>
+  <si>
+    <t>localhost:8000/usedbikes/review_offer/{id}/</t>
+  </si>
+  <si>
+    <t>For retrieveing a specific offer request</t>
+  </si>
+  <si>
+    <t>localhost:8000/usedbikes/review_offer/{id}/accept_offer/</t>
+  </si>
+  <si>
+    <t>For accepting an offer request</t>
+  </si>
+  <si>
+    <t>&lt;---------------- UsersView ----------------&gt;</t>
+  </si>
+  <si>
+    <t>&lt;---------------- BikesView ----------------&gt;</t>
+  </si>
+  <si>
+    <t>&lt;---------------- BuyersView ----------------&gt;</t>
+  </si>
+  <si>
+    <t>&lt;---------------- ReviewOfferRequestsView ----------------&gt;</t>
+  </si>
+  <si>
+    <t>localhost:8000/usedbikes/review_offer/{id}/cancel_offer/</t>
+  </si>
+  <si>
+    <t>For cancel an offer request</t>
   </si>
 </sst>
 </file>
@@ -186,15 +216,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,238 +519,220 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18:L18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10:L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="16" max="18" width="8.7265625" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
       <c r="G1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4" t="s">
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4" t="s">
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="Q1" s="8"/>
+      <c r="R1" s="9"/>
+    </row>
+    <row r="2" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
       <c r="G3" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
+      <c r="H3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q3" s="4"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
       <c r="G4" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" s="4"/>
+    </row>
+    <row r="5" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3" t="s">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3" t="s">
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+      <c r="Q6" s="4"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" t="s">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H7" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
+      <c r="R7" s="11"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
       <c r="G8" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
@@ -718,32 +744,32 @@
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
       <c r="P8" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
+      <c r="R8" s="3"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="A9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
       <c r="G9" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
@@ -751,22 +777,22 @@
         <v>14</v>
       </c>
       <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
+      <c r="R9" s="3"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="A10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
       <c r="G10" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
@@ -778,32 +804,32 @@
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
       <c r="P10" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
+      <c r="R10" s="3"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="A11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
       <c r="G11" t="s">
         <v>7</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
@@ -811,22 +837,22 @@
         <v>14</v>
       </c>
       <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
+      <c r="R11" s="3"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="A12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
       <c r="G12" t="s">
         <v>15</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
@@ -838,44 +864,55 @@
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
       <c r="P12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="3"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
+      <c r="Q13" s="5"/>
       <c r="R13" s="3"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="A14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
       <c r="G14" t="s">
         <v>15</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
@@ -890,344 +927,429 @@
         <v>14</v>
       </c>
       <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
+      <c r="R14" s="3"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A16" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" t="s">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" t="s">
-        <v>40</v>
-      </c>
       <c r="H16" s="5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
+      <c r="M16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q16" s="5"/>
       <c r="R16" s="3"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="A17" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
       <c r="G17" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
+      <c r="M17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q17" s="5"/>
       <c r="R17" s="3"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
+      <c r="A18" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q18" s="5"/>
       <c r="R18" s="3"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
+      <c r="A19" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q19" s="5"/>
       <c r="R19" s="3"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
+    <row r="20" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
+      <c r="A21" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q21" s="5"/>
       <c r="R21" s="3"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
+      <c r="A22" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q22" s="5"/>
       <c r="R22" s="3"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
+      <c r="A23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q23" s="5"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="100">
-    <mergeCell ref="P25:R25"/>
-    <mergeCell ref="P15:R15"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="P18:R18"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="P22:R22"/>
-    <mergeCell ref="P23:R23"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="P14:R14"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="P5:R5"/>
-    <mergeCell ref="P6:R6"/>
-    <mergeCell ref="P7:R7"/>
-    <mergeCell ref="P13:R13"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="P9:R9"/>
-    <mergeCell ref="P10:R10"/>
-    <mergeCell ref="P11:R11"/>
-    <mergeCell ref="P12:R12"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A17:F17"/>
+  <mergeCells count="96">
+    <mergeCell ref="A2:Q2"/>
+    <mergeCell ref="A15:Q15"/>
+    <mergeCell ref="A20:Q20"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="A5:Q5"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="A4:F4"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="A19:F19"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A9:F9"/>
     <mergeCell ref="A10:F10"/>
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A13:F13"/>
     <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A15:F15"/>
     <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="H12:L12"/>
     <mergeCell ref="H13:L13"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="M26:O26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/API-documentation-usedbikes.xlsx
+++ b/API-documentation-usedbikes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajayb\OneDrive\Desktop\Luminar Projects\olx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA9424C-A6E5-43FC-8979-56EA5F6CBE31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE23F92A-D999-42B0-A8FB-BFCF9B07682B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="54">
   <si>
     <t>Url</t>
   </si>
@@ -181,6 +181,12 @@
   </si>
   <si>
     <t>For cancel an offer request</t>
+  </si>
+  <si>
+    <t>localhost:8000/usedbikes/bikes/{id}/mark_as_sold/</t>
+  </si>
+  <si>
+    <t>To mark a bike post as sold</t>
   </si>
 </sst>
 </file>
@@ -216,7 +222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -225,20 +231,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -519,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R27"/>
+  <dimension ref="A1:R28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10:L10"/>
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -558,7 +566,7 @@
         <v>4</v>
       </c>
       <c r="Q1" s="8"/>
-      <c r="R1" s="9"/>
+      <c r="R1" s="6"/>
     </row>
     <row r="2" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
@@ -582,62 +590,62 @@
       <c r="Q2" s="8"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
       <c r="G3" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4" t="s">
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q3" s="4"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q3" s="11"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
       <c r="G4" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4" t="s">
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q4" s="4"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" s="11"/>
     </row>
     <row r="5" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
@@ -661,611 +669,718 @@
       <c r="Q5" s="8"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
       <c r="G6" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4" t="s">
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4" t="s">
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="Q6" s="4"/>
+      <c r="Q6" s="11"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
       <c r="G7" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="11"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="7"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
       <c r="G8" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q8" s="5"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q8" s="10"/>
       <c r="R8" s="3"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
       <c r="G9" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5" t="s">
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5" t="s">
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="Q9" s="5"/>
+      <c r="Q9" s="10"/>
       <c r="R9" s="3"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
       <c r="G10" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5" t="s">
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="Q10" s="5"/>
+      <c r="Q10" s="10"/>
       <c r="R10" s="3"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
       <c r="G11" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5" t="s">
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5" t="s">
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="Q11" s="5"/>
+      <c r="Q11" s="10"/>
       <c r="R11" s="3"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
       <c r="G12" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q12" s="5"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q12" s="10"/>
       <c r="R12" s="3"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
       <c r="G13" t="s">
         <v>7</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5" t="s">
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5" t="s">
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="Q13" s="5"/>
+      <c r="Q13" s="10"/>
       <c r="R13" s="3"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
       <c r="G14" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5" t="s">
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="Q14" s="5"/>
+      <c r="Q14" s="10"/>
       <c r="R14" s="3"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A15" s="8" t="s">
+    <row r="15" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="5"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A16" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A16" s="7" t="s">
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A17" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A17" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
       <c r="G17" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="3"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A18" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5" t="s">
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="3"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A18" s="7" t="s">
+      <c r="Q18" s="10"/>
+      <c r="R18" s="3"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A19" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" t="s">
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" t="s">
         <v>39</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H19" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5" t="s">
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5" t="s">
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="3"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A19" s="7" t="s">
+      <c r="Q19" s="10"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A20" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" t="s">
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H20" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
       <c r="K20" s="10"/>
       <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
+      <c r="M20" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="N20" s="10"/>
       <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
+      <c r="P20" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="Q20" s="10"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A21" s="7" t="s">
+      <c r="R20" s="3"/>
+    </row>
+    <row r="21" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A22" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" t="s">
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" t="s">
         <v>15</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H22" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5" t="s">
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="3"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A22" s="7" t="s">
+      <c r="Q22" s="10"/>
+      <c r="R22" s="3"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A23" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" t="s">
-        <v>7</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="3"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A23" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
       <c r="G23" t="s">
         <v>7</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H23" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="3"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A24" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5" t="s">
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="Q23" s="5"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
+      <c r="Q24" s="10"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="96">
+  <mergeCells count="100">
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="P23:Q23"/>
     <mergeCell ref="A2:Q2"/>
-    <mergeCell ref="A15:Q15"/>
-    <mergeCell ref="A20:Q20"/>
-    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="A16:Q16"/>
+    <mergeCell ref="A21:Q21"/>
     <mergeCell ref="P24:Q24"/>
     <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="P22:Q22"/>
     <mergeCell ref="P4:Q4"/>
     <mergeCell ref="P6:Q6"/>
     <mergeCell ref="P7:Q7"/>
@@ -1274,82 +1389,9 @@
     <mergeCell ref="A5:Q5"/>
     <mergeCell ref="P13:Q13"/>
     <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="P16:Q16"/>
     <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P18:Q18"/>
     <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="M26:O26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/API-documentation-usedbikes.xlsx
+++ b/API-documentation-usedbikes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajayb\OneDrive\Desktop\Luminar Projects\olx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE23F92A-D999-42B0-A8FB-BFCF9B07682B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E86CB82D-3332-4191-A2DB-3CEA46E438C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="59">
   <si>
     <t>Url</t>
   </si>
@@ -187,6 +187,21 @@
   </si>
   <si>
     <t>To mark a bike post as sold</t>
+  </si>
+  <si>
+    <t>localhost:8000/usedbikes/sales/sold_bikes/</t>
+  </si>
+  <si>
+    <t>For list all sold bikes of logined user</t>
+  </si>
+  <si>
+    <t>localhost:8000/usedbikes/sales/bought_bikes/</t>
+  </si>
+  <si>
+    <t>For list all bikes bought by logined user</t>
+  </si>
+  <si>
+    <t>&lt;---------------- SellersView ----------------&gt;</t>
   </si>
 </sst>
 </file>
@@ -237,16 +252,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -529,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27:O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -539,763 +554,786 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
       <c r="G1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8" t="s">
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8" t="s">
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="8"/>
+      <c r="Q1" s="13"/>
       <c r="R1" s="6"/>
     </row>
     <row r="2" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
       <c r="G3" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11" t="s">
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q3" s="11"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q3" s="9"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
       <c r="G4" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11" t="s">
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q4" s="11"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" s="9"/>
     </row>
     <row r="5" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
       <c r="G6" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11" t="s">
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q6" s="11"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q6" s="9"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
       <c r="G7" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q7" s="10"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q7" s="8"/>
       <c r="R7" s="7"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
       <c r="G8" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q8" s="10"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q8" s="8"/>
       <c r="R8" s="3"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
       <c r="G9" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10" t="s">
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q9" s="10"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q9" s="8"/>
       <c r="R9" s="3"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
       <c r="G10" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q10" s="10"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q10" s="8"/>
       <c r="R10" s="3"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
       <c r="G11" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10" t="s">
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q11" s="10"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q11" s="8"/>
       <c r="R11" s="3"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
       <c r="G12" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q12" s="10"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q12" s="8"/>
       <c r="R12" s="3"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
       <c r="G13" t="s">
         <v>7</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="H13" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10" t="s">
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q13" s="10"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q13" s="8"/>
       <c r="R13" s="3"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
       <c r="G14" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="H14" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q14" s="10"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q14" s="8"/>
       <c r="R14" s="3"/>
     </row>
     <row r="15" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
       <c r="G15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="H15" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q15" s="10"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q15" s="8"/>
       <c r="R15" s="5"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
       <c r="G17" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="H17" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q17" s="10"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q17" s="8"/>
       <c r="R17" s="3"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
       <c r="G18" t="s">
         <v>15</v>
       </c>
-      <c r="H18" s="10" t="s">
+      <c r="H18" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q18" s="10"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q18" s="8"/>
       <c r="R18" s="3"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
       <c r="G19" t="s">
         <v>39</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="H19" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10" t="s">
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q19" s="10"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q19" s="8"/>
       <c r="R19" s="3"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
       <c r="G20" t="s">
         <v>22</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="H20" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q20" s="10"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q20" s="8"/>
       <c r="R20" s="3"/>
     </row>
     <row r="21" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
       <c r="G22" t="s">
         <v>15</v>
       </c>
-      <c r="H22" s="10" t="s">
+      <c r="H22" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q22" s="10"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q22" s="8"/>
       <c r="R22" s="3"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
       <c r="G23" t="s">
         <v>7</v>
       </c>
-      <c r="H23" s="10" t="s">
+      <c r="H23" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q23" s="10"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q23" s="8"/>
       <c r="R23" s="3"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
       <c r="G24" t="s">
         <v>7</v>
       </c>
-      <c r="H24" s="10" t="s">
+      <c r="H24" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q24" s="10"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q24" s="8"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="11"/>
+      <c r="A25" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A26" s="12"/>
+      <c r="A26" s="12" t="s">
+        <v>54</v>
+      </c>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
+      <c r="G26" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q26" s="8"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A27" s="12"/>
+      <c r="A27" s="12" t="s">
+        <v>56</v>
+      </c>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="11"/>
+      <c r="G27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q27" s="8"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="11"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="100">
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="P15:Q15"/>
+  <mergeCells count="97">
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="A25:Q25"/>
     <mergeCell ref="M28:O28"/>
     <mergeCell ref="M18:O18"/>
     <mergeCell ref="M19:O19"/>
@@ -1303,27 +1341,31 @@
     <mergeCell ref="M22:O22"/>
     <mergeCell ref="M23:O23"/>
     <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M25:O25"/>
     <mergeCell ref="M26:O26"/>
     <mergeCell ref="M27:O27"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="P15:Q15"/>
     <mergeCell ref="M10:O10"/>
     <mergeCell ref="M11:O11"/>
     <mergeCell ref="M12:O12"/>
     <mergeCell ref="M13:O13"/>
     <mergeCell ref="M14:O14"/>
-    <mergeCell ref="H22:L22"/>
     <mergeCell ref="H12:L12"/>
     <mergeCell ref="H13:L13"/>
     <mergeCell ref="H14:L14"/>
     <mergeCell ref="H17:L17"/>
     <mergeCell ref="H18:L18"/>
+    <mergeCell ref="A16:Q16"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="M6:O6"/>
     <mergeCell ref="A27:F27"/>
     <mergeCell ref="A28:F28"/>
     <mergeCell ref="H3:L3"/>
@@ -1337,30 +1379,25 @@
     <mergeCell ref="A22:F22"/>
     <mergeCell ref="A23:F23"/>
     <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="H20:L20"/>
     <mergeCell ref="H19:L19"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A8:F8"/>
     <mergeCell ref="A9:F9"/>
     <mergeCell ref="A10:F10"/>
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="A12:F12"/>
     <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="M6:O6"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="M3:O3"/>
+    <mergeCell ref="A2:Q2"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P3:Q3"/>
     <mergeCell ref="P11:Q11"/>
     <mergeCell ref="P12:Q12"/>
     <mergeCell ref="A4:F4"/>
@@ -1369,6 +1406,14 @@
     <mergeCell ref="M7:O7"/>
     <mergeCell ref="M8:O8"/>
     <mergeCell ref="M9:O9"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="A5:Q5"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="A8:F8"/>
     <mergeCell ref="P26:Q26"/>
     <mergeCell ref="P27:Q27"/>
     <mergeCell ref="P28:Q28"/>
@@ -1376,22 +1421,14 @@
     <mergeCell ref="P20:Q20"/>
     <mergeCell ref="P22:Q22"/>
     <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="A2:Q2"/>
-    <mergeCell ref="A16:Q16"/>
     <mergeCell ref="A21:Q21"/>
     <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="A5:Q5"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="H24:L24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/API-documentation-usedbikes.xlsx
+++ b/API-documentation-usedbikes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajayb\OneDrive\Desktop\Luminar Projects\olx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E86CB82D-3332-4191-A2DB-3CEA46E438C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45AB6979-6691-4B66-ADD2-873051283D79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -253,13 +253,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -545,7 +545,7 @@
   <dimension ref="A1:R28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27:O27"/>
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -554,173 +554,173 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
       <c r="G1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13" t="s">
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13" t="s">
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="13"/>
+      <c r="Q1" s="9"/>
       <c r="R1" s="6"/>
     </row>
     <row r="2" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
       <c r="G3" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9" t="s">
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q3" s="9"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q3" s="10"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
       <c r="G4" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9" t="s">
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q4" s="9"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" s="10"/>
     </row>
     <row r="5" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
       <c r="G6" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9" t="s">
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q6" s="9"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q6" s="10"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
       <c r="G7" t="s">
         <v>15</v>
       </c>
@@ -743,14 +743,14 @@
       <c r="R7" s="7"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
       <c r="G8" t="s">
         <v>15</v>
       </c>
@@ -773,14 +773,14 @@
       <c r="R8" s="3"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
       <c r="G9" t="s">
         <v>20</v>
       </c>
@@ -803,14 +803,14 @@
       <c r="R9" s="3"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
       <c r="G10" t="s">
         <v>22</v>
       </c>
@@ -833,14 +833,14 @@
       <c r="R10" s="3"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
       <c r="G11" t="s">
         <v>7</v>
       </c>
@@ -863,14 +863,14 @@
       <c r="R11" s="3"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
       <c r="G12" t="s">
         <v>15</v>
       </c>
@@ -893,14 +893,14 @@
       <c r="R12" s="3"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
       <c r="G13" t="s">
         <v>7</v>
       </c>
@@ -923,14 +923,14 @@
       <c r="R13" s="3"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
       <c r="G14" t="s">
         <v>15</v>
       </c>
@@ -953,14 +953,14 @@
       <c r="R14" s="3"/>
     </row>
     <row r="15" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
       <c r="G15" s="4" t="s">
         <v>7</v>
       </c>
@@ -983,35 +983,35 @@
       <c r="R15" s="5"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
       <c r="G17" t="s">
         <v>15</v>
       </c>
@@ -1034,14 +1034,14 @@
       <c r="R17" s="3"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
       <c r="G18" t="s">
         <v>15</v>
       </c>
@@ -1064,14 +1064,14 @@
       <c r="R18" s="3"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
       <c r="G19" t="s">
         <v>39</v>
       </c>
@@ -1094,14 +1094,14 @@
       <c r="R19" s="3"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
       <c r="G20" t="s">
         <v>22</v>
       </c>
@@ -1124,35 +1124,35 @@
       <c r="R20" s="3"/>
     </row>
     <row r="21" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
       <c r="G22" t="s">
         <v>15</v>
       </c>
@@ -1175,14 +1175,14 @@
       <c r="R22" s="3"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
       <c r="G23" t="s">
         <v>7</v>
       </c>
@@ -1205,14 +1205,14 @@
       <c r="R23" s="3"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
       <c r="G24" t="s">
         <v>7</v>
       </c>
@@ -1234,35 +1234,35 @@
       <c r="Q24" s="8"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
       <c r="G26" t="s">
         <v>15</v>
       </c>
@@ -1284,14 +1284,14 @@
       <c r="Q26" s="8"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
       <c r="G27" t="s">
         <v>15</v>
       </c>
@@ -1313,57 +1313,65 @@
       <c r="Q27" s="8"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="97">
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="A25:Q25"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="A16:Q16"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="A21:Q21"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="A5:Q5"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="A2:Q2"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A13:F13"/>
     <mergeCell ref="M4:O4"/>
     <mergeCell ref="M6:O6"/>
     <mergeCell ref="A27:F27"/>
@@ -1380,55 +1388,47 @@
     <mergeCell ref="A23:F23"/>
     <mergeCell ref="A24:F24"/>
     <mergeCell ref="A14:F14"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="A16:Q16"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="M17:O17"/>
     <mergeCell ref="A17:F17"/>
     <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="A25:Q25"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="H22:L22"/>
     <mergeCell ref="A19:F19"/>
     <mergeCell ref="H20:L20"/>
     <mergeCell ref="H19:L19"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="A2:Q2"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="A5:Q5"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="A8:F8"/>
     <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="A21:Q21"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="H24:L24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
